--- a/pases pruebas/matrices/Matriz_region_16_08_2017.xlsx
+++ b/pases pruebas/matrices/Matriz_region_16_08_2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
   <si>
     <t>VARIABLES</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>Empresas Administradoras de Fondos</t>
-  </si>
-  <si>
-    <t>Año</t>
   </si>
   <si>
     <t>Total</t>
@@ -789,6 +786,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,21 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,10 +810,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1136,7 +1133,7 @@
   <dimension ref="A2:BG80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1200,7 @@
   <sheetData>
     <row r="2" spans="2:59" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1239,190 +1236,190 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="2:59" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="30"/>
-      <c r="AT4" s="30"/>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="30"/>
-      <c r="AW4" s="30"/>
-      <c r="AX4" s="30"/>
-      <c r="AY4" s="30"/>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="30"/>
-      <c r="BC4" s="30"/>
-      <c r="BD4" s="30"/>
-      <c r="BE4" s="30"/>
-      <c r="BF4" s="30"/>
-      <c r="BG4" s="31"/>
+      <c r="B4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="34">
+        <v>2016</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="36"/>
     </row>
     <row r="5" spans="2:59" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32" t="s">
+      <c r="U5" s="27"/>
+      <c r="V5" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32" t="s">
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32" t="s">
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32" t="s">
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32" t="s">
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG5" s="40"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG5" s="39"/>
     </row>
     <row r="6" spans="2:59" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="19" t="s">
         <v>39</v>
       </c>
@@ -1597,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -1659,7 +1656,7 @@
     <row r="8" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="12">
         <v>10</v>
@@ -2877,7 +2874,7 @@
     <row r="15" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="12">
         <v>8</v>
@@ -5141,7 +5138,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -9207,7 +9204,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -10139,7 +10136,7 @@
     <row r="58" spans="2:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="12">
         <v>5</v>
@@ -12403,7 +12400,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="13"/>
@@ -12439,7 +12436,7 @@
     <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B72" s="15"/>
       <c r="C72" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="12">
         <v>14</v>
@@ -12789,7 +12786,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
@@ -12852,7 +12849,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="15"/>
       <c r="C75" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="12">
         <v>8</v>
@@ -13379,6 +13376,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
@@ -13395,21 +13407,6 @@
     <mergeCell ref="BB5:BC5"/>
     <mergeCell ref="BD5:BE5"/>
     <mergeCell ref="BF5:BG5"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
